--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15F7F6B-B594-EC4B-B353-6716CE64C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF53513-E9F1-6A40-BB87-6EDDB295812A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="6360" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Array</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Min in rotated sorted aarray</t>
   </si>
   <si>
-    <t>Search in rotated sortd array</t>
-  </si>
-  <si>
     <t>3sum</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Alien dict</t>
   </si>
   <si>
-    <t>Grap valid trere</t>
-  </si>
-  <si>
     <t>Num connected components in undirected graph</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>Set matrix zeroes</t>
   </si>
   <si>
-    <t>Spirala matrix</t>
-  </si>
-  <si>
     <t>Rotate image</t>
   </si>
   <si>
@@ -280,6 +271,27 @@
   </si>
   <si>
     <t>Matrix</t>
+  </si>
+  <si>
+    <t>5/17/21 - 5/23/21</t>
+  </si>
+  <si>
+    <t>Graph valid tree</t>
+  </si>
+  <si>
+    <t>Spiral matrix</t>
+  </si>
+  <si>
+    <t>5/24/21 - 5/30/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5/31/2021 - 6/6/2021</t>
+  </si>
+  <si>
+    <t>Search in rotated sorted array</t>
   </si>
 </sst>
 </file>
@@ -295,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +317,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,9 +339,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,440 +658,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
-  <dimension ref="A1:A94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>66</v>
+      <c r="A76" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF53513-E9F1-6A40-BB87-6EDDB295812A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60722029-8377-0A47-897D-984C2AE8F75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -298,10 +298,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,11 +346,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,41 +699,49 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -794,11 +810,13 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -809,6 +827,7 @@
       <c r="A28" t="s">
         <v>23</v>
       </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -824,11 +843,13 @@
       <c r="A31" t="s">
         <v>26</v>
       </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60722029-8377-0A47-897D-984C2AE8F75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3BE3B3-648F-124D-AC44-A3A4E14DA354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,11 +747,13 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -998,143 +1000,147 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3BE3B3-648F-124D-AC44-A3A4E14DA354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FA6BB-585E-4547-9D9E-375C38F4DC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Array</t>
   </si>
@@ -273,25 +273,28 @@
     <t>Matrix</t>
   </si>
   <si>
-    <t>5/17/21 - 5/23/21</t>
-  </si>
-  <si>
     <t>Graph valid tree</t>
   </si>
   <si>
     <t>Spiral matrix</t>
   </si>
   <si>
-    <t>5/24/21 - 5/30/21</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>5/31/2021 - 6/6/2021</t>
-  </si>
-  <si>
     <t>Search in rotated sorted array</t>
+  </si>
+  <si>
+    <t>6/7 - 6/13</t>
+  </si>
+  <si>
+    <t>5/17 - 5/23</t>
+  </si>
+  <si>
+    <t>5/24 - 5/30</t>
+  </si>
+  <si>
+    <t>5/31 - 6/6</t>
   </si>
 </sst>
 </file>
@@ -666,106 +669,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -894,7 +902,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -980,7 +988,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2"/>
     </row>
@@ -1077,11 +1085,13 @@
       <c r="A80" t="s">
         <v>66</v>
       </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>67</v>
       </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -1092,6 +1102,7 @@
       <c r="A83" t="s">
         <v>69</v>
       </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -1145,7 +1156,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FA6BB-585E-4547-9D9E-375C38F4DC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492D7A2-A50F-CB44-BAC0-306B68C58500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,6 +1108,7 @@
       <c r="A84" t="s">
         <v>70</v>
       </c>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492D7A2-A50F-CB44-BAC0-306B68C58500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC980FD-7C33-374D-8B3D-CE88AC87B7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Array</t>
   </si>
@@ -283,18 +283,6 @@
   </si>
   <si>
     <t>Search in rotated sorted array</t>
-  </si>
-  <si>
-    <t>6/7 - 6/13</t>
-  </si>
-  <si>
-    <t>5/17 - 5/23</t>
-  </si>
-  <si>
-    <t>5/24 - 5/30</t>
-  </si>
-  <si>
-    <t>5/31 - 6/6</t>
   </si>
 </sst>
 </file>
@@ -349,12 +337,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,326 +674,385 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="2"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -1042,115 +1091,146 @@
       <c r="A71" t="s">
         <v>58</v>
       </c>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>68</v>
       </c>
+      <c r="B82" s="2"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
+      <c r="B86" s="2"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
+      <c r="B87" s="2"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
+      <c r="B88" s="2"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>76</v>
       </c>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="2"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -1159,11 +1239,16 @@
       <c r="B94" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesma/Documents/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC980FD-7C33-374D-8B3D-CE88AC87B7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECB851-18AD-DB4F-812C-7B0D4292BB34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{36F48D40-1655-3544-931F-22B176B11B03}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0268-5BB0-5D42-BAA8-556276A2BBA5}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,11 +1061,13 @@
       <c r="A65" t="s">
         <v>52</v>
       </c>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -1076,27 +1078,32 @@
       <c r="A68" t="s">
         <v>55</v>
       </c>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>58</v>
       </c>
+      <c r="B71" s="2"/>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
+      <c r="B72" s="2"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
